--- a/Final/Mango.xlsx
+++ b/Final/Mango.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\tentacle\Documents\GitHub\ProduccionMango\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87306C1D-8177-45AA-9025-9D22DE9C701C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E4EFB4-8ABE-4B39-8020-8C54831038D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="1785" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="414">
   <si>
     <t>ENTIDAD</t>
   </si>
@@ -514,6 +514,759 @@
   </si>
   <si>
     <t>1,012.83</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>1,626.50</t>
+  </si>
+  <si>
+    <t>1,078.50</t>
+  </si>
+  <si>
+    <t>8,023.85</t>
+  </si>
+  <si>
+    <t>7.44</t>
+  </si>
+  <si>
+    <t>5,808.49</t>
+  </si>
+  <si>
+    <t>46,606.49</t>
+  </si>
+  <si>
+    <t>2,395.10</t>
+  </si>
+  <si>
+    <t>2,333.50</t>
+  </si>
+  <si>
+    <t>32,396.57</t>
+  </si>
+  <si>
+    <t>13.88</t>
+  </si>
+  <si>
+    <t>4,837.92</t>
+  </si>
+  <si>
+    <t>156,732.01</t>
+  </si>
+  <si>
+    <t>4,137.33</t>
+  </si>
+  <si>
+    <t>3,827.15</t>
+  </si>
+  <si>
+    <t>57,539.63</t>
+  </si>
+  <si>
+    <t>15.03</t>
+  </si>
+  <si>
+    <t>4,136.58</t>
+  </si>
+  <si>
+    <t>238,017.40</t>
+  </si>
+  <si>
+    <t>38,621.69</t>
+  </si>
+  <si>
+    <t>35,747.39</t>
+  </si>
+  <si>
+    <t>268,373.93</t>
+  </si>
+  <si>
+    <t>7.51</t>
+  </si>
+  <si>
+    <t>5,301.92</t>
+  </si>
+  <si>
+    <t>1,422,896.69</t>
+  </si>
+  <si>
+    <t>400.05</t>
+  </si>
+  <si>
+    <t>384.05</t>
+  </si>
+  <si>
+    <t>1,541.63</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>4,762.53</t>
+  </si>
+  <si>
+    <t>7,342.05</t>
+  </si>
+  <si>
+    <t>26,948.47</t>
+  </si>
+  <si>
+    <t>25,142.95</t>
+  </si>
+  <si>
+    <t>390,750.85</t>
+  </si>
+  <si>
+    <t>15.54</t>
+  </si>
+  <si>
+    <t>5,299.71</t>
+  </si>
+  <si>
+    <t>2,070,866.80</t>
+  </si>
+  <si>
+    <t>82.75</t>
+  </si>
+  <si>
+    <t>521.87</t>
+  </si>
+  <si>
+    <t>6.61</t>
+  </si>
+  <si>
+    <t>4,417.57</t>
+  </si>
+  <si>
+    <t>2,305.40</t>
+  </si>
+  <si>
+    <t>7,832.84</t>
+  </si>
+  <si>
+    <t>7,769.84</t>
+  </si>
+  <si>
+    <t>114,959.86</t>
+  </si>
+  <si>
+    <t>14.80</t>
+  </si>
+  <si>
+    <t>3,396.67</t>
+  </si>
+  <si>
+    <t>390,480.81</t>
+  </si>
+  <si>
+    <t>366.50</t>
+  </si>
+  <si>
+    <t>2,950.51</t>
+  </si>
+  <si>
+    <t>8.09</t>
+  </si>
+  <si>
+    <t>6,957.69</t>
+  </si>
+  <si>
+    <t>20,528.73</t>
+  </si>
+  <si>
+    <t>25,204.43</t>
+  </si>
+  <si>
+    <t>22,655.43</t>
+  </si>
+  <si>
+    <t>161,810.22</t>
+  </si>
+  <si>
+    <t>7.14</t>
+  </si>
+  <si>
+    <t>5,851.67</t>
+  </si>
+  <si>
+    <t>946,860.11</t>
+  </si>
+  <si>
+    <t>346.50</t>
+  </si>
+  <si>
+    <t>5,163.23</t>
+  </si>
+  <si>
+    <t>14.90</t>
+  </si>
+  <si>
+    <t>3,376.88</t>
+  </si>
+  <si>
+    <t>17,435.59</t>
+  </si>
+  <si>
+    <t>27,086.15</t>
+  </si>
+  <si>
+    <t>26,223.65</t>
+  </si>
+  <si>
+    <t>322,154.81</t>
+  </si>
+  <si>
+    <t>12.28</t>
+  </si>
+  <si>
+    <t>3,489.85</t>
+  </si>
+  <si>
+    <t>1,124,271.37</t>
+  </si>
+  <si>
+    <t>19,154.00</t>
+  </si>
+  <si>
+    <t>18,344.00</t>
+  </si>
+  <si>
+    <t>208,798.27</t>
+  </si>
+  <si>
+    <t>11.38</t>
+  </si>
+  <si>
+    <t>3,407.80</t>
+  </si>
+  <si>
+    <t>711,541.85</t>
+  </si>
+  <si>
+    <t>51.50</t>
+  </si>
+  <si>
+    <t>498.50</t>
+  </si>
+  <si>
+    <t>9.68</t>
+  </si>
+  <si>
+    <t>4,090.60</t>
+  </si>
+  <si>
+    <t>2,039.16</t>
+  </si>
+  <si>
+    <t>281.00</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>5,831.68</t>
+  </si>
+  <si>
+    <t>1,638.70</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>230.68</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>6,281.96</t>
+  </si>
+  <si>
+    <t>1,449.12</t>
+  </si>
+  <si>
+    <t>33,401.91</t>
+  </si>
+  <si>
+    <t>30,850.91</t>
+  </si>
+  <si>
+    <t>397,780.11</t>
+  </si>
+  <si>
+    <t>12.89</t>
+  </si>
+  <si>
+    <t>3,969.13</t>
+  </si>
+  <si>
+    <t>1,578,839.64</t>
+  </si>
+  <si>
+    <t>78.28</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>392.96</t>
+  </si>
+  <si>
+    <t>15.11</t>
+  </si>
+  <si>
+    <t>3,490.11</t>
+  </si>
+  <si>
+    <t>1,371.47</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>1,046.18</t>
+  </si>
+  <si>
+    <t>5.51</t>
+  </si>
+  <si>
+    <t>2,893.35</t>
+  </si>
+  <si>
+    <t>3,026.97</t>
+  </si>
+  <si>
+    <t>854.76</t>
+  </si>
+  <si>
+    <t>850.26</t>
+  </si>
+  <si>
+    <t>12,034.66</t>
+  </si>
+  <si>
+    <t>14.15</t>
+  </si>
+  <si>
+    <t>3,406.95</t>
+  </si>
+  <si>
+    <t>41,001.45</t>
+  </si>
+  <si>
+    <t>16,956.00</t>
+  </si>
+  <si>
+    <t>99,734.56</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>3,123.93</t>
+  </si>
+  <si>
+    <t>311,563.44</t>
+  </si>
+  <si>
+    <t>155.60</t>
+  </si>
+  <si>
+    <t>124.10</t>
+  </si>
+  <si>
+    <t>1,810.36</t>
+  </si>
+  <si>
+    <t>14.59</t>
+  </si>
+  <si>
+    <t>5,696.83</t>
+  </si>
+  <si>
+    <t>10,313.31</t>
+  </si>
+  <si>
+    <t>246.94</t>
+  </si>
+  <si>
+    <t>7.48</t>
+  </si>
+  <si>
+    <t>5,213.49</t>
+  </si>
+  <si>
+    <t>1,287.42</t>
+  </si>
+  <si>
+    <t>1,660.70</t>
+  </si>
+  <si>
+    <t>1,082.70</t>
+  </si>
+  <si>
+    <t>7,999.61</t>
+  </si>
+  <si>
+    <t>7.39</t>
+  </si>
+  <si>
+    <t>6,297.93</t>
+  </si>
+  <si>
+    <t>50,381.02</t>
+  </si>
+  <si>
+    <t>1,724.70</t>
+  </si>
+  <si>
+    <t>1,686.50</t>
+  </si>
+  <si>
+    <t>23,852.59</t>
+  </si>
+  <si>
+    <t>14.14</t>
+  </si>
+  <si>
+    <t>5,064.54</t>
+  </si>
+  <si>
+    <t>120,802.35</t>
+  </si>
+  <si>
+    <t>4,265.88</t>
+  </si>
+  <si>
+    <t>3,964.48</t>
+  </si>
+  <si>
+    <t>59,081.74</t>
+  </si>
+  <si>
+    <t>4,094.12</t>
+  </si>
+  <si>
+    <t>241,887.50</t>
+  </si>
+  <si>
+    <t>38,704.75</t>
+  </si>
+  <si>
+    <t>35,800.25</t>
+  </si>
+  <si>
+    <t>270,644.12</t>
+  </si>
+  <si>
+    <t>7.56</t>
+  </si>
+  <si>
+    <t>5,344.34</t>
+  </si>
+  <si>
+    <t>1,446,415.10</t>
+  </si>
+  <si>
+    <t>385.05</t>
+  </si>
+  <si>
+    <t>1,348.41</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>4,900.75</t>
+  </si>
+  <si>
+    <t>6,608.22</t>
+  </si>
+  <si>
+    <t>26,917.50</t>
+  </si>
+  <si>
+    <t>25,288.38</t>
+  </si>
+  <si>
+    <t>395,477.31</t>
+  </si>
+  <si>
+    <t>15.64</t>
+  </si>
+  <si>
+    <t>6,680.30</t>
+  </si>
+  <si>
+    <t>2,641,906.45</t>
+  </si>
+  <si>
+    <t>510.08</t>
+  </si>
+  <si>
+    <t>6.46</t>
+  </si>
+  <si>
+    <t>4,252.13</t>
+  </si>
+  <si>
+    <t>2,168.93</t>
+  </si>
+  <si>
+    <t>7,879.84</t>
+  </si>
+  <si>
+    <t>7,768.84</t>
+  </si>
+  <si>
+    <t>110,916.50</t>
+  </si>
+  <si>
+    <t>14.28</t>
+  </si>
+  <si>
+    <t>2,766.75</t>
+  </si>
+  <si>
+    <t>306,878.17</t>
+  </si>
+  <si>
+    <t>370.00</t>
+  </si>
+  <si>
+    <t>3,002.66</t>
+  </si>
+  <si>
+    <t>8.12</t>
+  </si>
+  <si>
+    <t>5,732.65</t>
+  </si>
+  <si>
+    <t>17,213.19</t>
+  </si>
+  <si>
+    <t>25,437.43</t>
+  </si>
+  <si>
+    <t>23,085.43</t>
+  </si>
+  <si>
+    <t>170,580.16</t>
+  </si>
+  <si>
+    <t>6,525.07</t>
+  </si>
+  <si>
+    <t>1,113,047.27</t>
+  </si>
+  <si>
+    <t>336.80</t>
+  </si>
+  <si>
+    <t>335.80</t>
+  </si>
+  <si>
+    <t>4,967.10</t>
+  </si>
+  <si>
+    <t>3,386.23</t>
+  </si>
+  <si>
+    <t>16,819.76</t>
+  </si>
+  <si>
+    <t>27,556.11</t>
+  </si>
+  <si>
+    <t>26,763.61</t>
+  </si>
+  <si>
+    <t>304,618.62</t>
+  </si>
+  <si>
+    <t>3,777.92</t>
+  </si>
+  <si>
+    <t>1,150,823.34</t>
+  </si>
+  <si>
+    <t>19,196.15</t>
+  </si>
+  <si>
+    <t>18,583.85</t>
+  </si>
+  <si>
+    <t>207,709.72</t>
+  </si>
+  <si>
+    <t>11.18</t>
+  </si>
+  <si>
+    <t>3,396.60</t>
+  </si>
+  <si>
+    <t>705,507.02</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>532.73</t>
+  </si>
+  <si>
+    <t>9.87</t>
+  </si>
+  <si>
+    <t>3,998.92</t>
+  </si>
+  <si>
+    <t>2,130.35</t>
+  </si>
+  <si>
+    <t>208.00</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>5,085.96</t>
+  </si>
+  <si>
+    <t>1,057.88</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>10,700.00</t>
+  </si>
+  <si>
+    <t>3,531.00</t>
+  </si>
+  <si>
+    <t>33,891.97</t>
+  </si>
+  <si>
+    <t>31,967.97</t>
+  </si>
+  <si>
+    <t>410,147.17</t>
+  </si>
+  <si>
+    <t>12.83</t>
+  </si>
+  <si>
+    <t>6,155.48</t>
+  </si>
+  <si>
+    <t>2,524,651.45</t>
+  </si>
+  <si>
+    <t>136.28</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>619.00</t>
+  </si>
+  <si>
+    <t>16.29</t>
+  </si>
+  <si>
+    <t>3,793.54</t>
+  </si>
+  <si>
+    <t>2,348.20</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>1,099.27</t>
+  </si>
+  <si>
+    <t>5.67</t>
+  </si>
+  <si>
+    <t>2,855.45</t>
+  </si>
+  <si>
+    <t>3,138.91</t>
+  </si>
+  <si>
+    <t>857.76</t>
+  </si>
+  <si>
+    <t>852.76</t>
+  </si>
+  <si>
+    <t>13,638.16</t>
+  </si>
+  <si>
+    <t>15.99</t>
+  </si>
+  <si>
+    <t>3,533.69</t>
+  </si>
+  <si>
+    <t>48,192.98</t>
+  </si>
+  <si>
+    <t>14,664.40</t>
+  </si>
+  <si>
+    <t>96,490.10</t>
+  </si>
+  <si>
+    <t>6.58</t>
+  </si>
+  <si>
+    <t>3,773.03</t>
+  </si>
+  <si>
+    <t>364,059.99</t>
+  </si>
+  <si>
+    <t>151.88</t>
+  </si>
+  <si>
+    <t>121.38</t>
+  </si>
+  <si>
+    <t>1,777.81</t>
+  </si>
+  <si>
+    <t>14.65</t>
+  </si>
+  <si>
+    <t>5,378.10</t>
+  </si>
+  <si>
+    <t>9,561.25</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>200.32</t>
+  </si>
+  <si>
+    <t>7.15</t>
+  </si>
+  <si>
+    <t>5,330.35</t>
+  </si>
+  <si>
+    <t>1,067.78</t>
   </si>
 </sst>
 </file>
@@ -831,642 +1584,2048 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>2018</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>2018</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>2018</v>
+      </c>
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>49</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
-        <v>52</v>
+      <c r="B8">
+        <v>2018</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>53</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>54</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>55</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>2018</v>
+      </c>
+      <c r="C9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
       <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>61</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>62</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
       <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>67</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11" t="s">
         <v>71</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>72</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
       <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>73</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>74</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>75</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12" t="s">
         <v>78</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>79</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
       <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>80</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>81</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13" t="s">
         <v>84</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>85</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
       <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>87</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>88</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>2018</v>
+      </c>
+      <c r="C14" t="s">
         <v>91</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>92</v>
       </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
       <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
         <v>93</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>94</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>95</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
-      <c r="B15" t="s">
-        <v>98</v>
+      <c r="B15">
+        <v>2018</v>
       </c>
       <c r="C15" t="s">
         <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
         <v>99</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>100</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>101</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
-      <c r="B16" t="s">
-        <v>104</v>
+      <c r="B16">
+        <v>2018</v>
       </c>
       <c r="C16" t="s">
         <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
         <v>105</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>106</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>107</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>109</v>
       </c>
-      <c r="B17" t="s">
-        <v>110</v>
+      <c r="B17">
+        <v>2018</v>
       </c>
       <c r="C17" t="s">
         <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
         <v>111</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>112</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>113</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>115</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>2018</v>
+      </c>
+      <c r="C18" t="s">
         <v>116</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>117</v>
       </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
       <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
         <v>118</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>119</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>120</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>122</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>2018</v>
+      </c>
+      <c r="C19" t="s">
         <v>123</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>124</v>
       </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
       <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
         <v>125</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>126</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>127</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>2018</v>
+      </c>
+      <c r="C20" t="s">
         <v>130</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>131</v>
       </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
       <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
         <v>132</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>133</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>134</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>136</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>2018</v>
+      </c>
+      <c r="C21" t="s">
         <v>137</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>138</v>
       </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
       <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
         <v>139</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>140</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>141</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>143</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>2018</v>
+      </c>
+      <c r="C22" t="s">
         <v>144</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>145</v>
       </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
       <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
         <v>146</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>147</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>148</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>150</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>2018</v>
+      </c>
+      <c r="C23" t="s">
         <v>151</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>152</v>
       </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
       <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
         <v>153</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>154</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>155</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>157</v>
       </c>
-      <c r="B24" t="s">
-        <v>158</v>
+      <c r="B24">
+        <v>2018</v>
       </c>
       <c r="C24" t="s">
         <v>158</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
         <v>159</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>160</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>161</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>2019</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>2019</v>
+      </c>
+      <c r="C26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>2019</v>
+      </c>
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" t="s">
+        <v>180</v>
+      </c>
+      <c r="I27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>2019</v>
+      </c>
+      <c r="C28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" t="s">
+        <v>186</v>
+      </c>
+      <c r="I28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>2019</v>
+      </c>
+      <c r="C29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" t="s">
+        <v>191</v>
+      </c>
+      <c r="H29" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30" t="s">
+        <v>198</v>
+      </c>
+      <c r="I30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31">
+        <v>2019</v>
+      </c>
+      <c r="C31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31" t="s">
+        <v>203</v>
+      </c>
+      <c r="I31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>2019</v>
+      </c>
+      <c r="C32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" t="s">
+        <v>208</v>
+      </c>
+      <c r="H32" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33">
+        <v>2019</v>
+      </c>
+      <c r="C33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" t="s">
+        <v>214</v>
+      </c>
+      <c r="I33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>2019</v>
+      </c>
+      <c r="C34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" t="s">
+        <v>219</v>
+      </c>
+      <c r="H34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35">
+        <v>2019</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" t="s">
+        <v>224</v>
+      </c>
+      <c r="H35" t="s">
+        <v>225</v>
+      </c>
+      <c r="I35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36">
+        <v>2019</v>
+      </c>
+      <c r="C36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" t="s">
+        <v>228</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" t="s">
+        <v>230</v>
+      </c>
+      <c r="H36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I36" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37">
+        <v>2019</v>
+      </c>
+      <c r="C37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" t="s">
+        <v>236</v>
+      </c>
+      <c r="H37" t="s">
+        <v>237</v>
+      </c>
+      <c r="I37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38">
+        <v>2019</v>
+      </c>
+      <c r="C38" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" t="s">
+        <v>239</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>240</v>
+      </c>
+      <c r="G38" t="s">
+        <v>241</v>
+      </c>
+      <c r="H38" t="s">
+        <v>242</v>
+      </c>
+      <c r="I38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39">
+        <v>2019</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>244</v>
+      </c>
+      <c r="G39" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" t="s">
+        <v>246</v>
+      </c>
+      <c r="I39" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40">
+        <v>2019</v>
+      </c>
+      <c r="C40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" t="s">
+        <v>248</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>249</v>
+      </c>
+      <c r="G40" t="s">
+        <v>250</v>
+      </c>
+      <c r="H40" t="s">
+        <v>251</v>
+      </c>
+      <c r="I40" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41">
+        <v>2019</v>
+      </c>
+      <c r="C41" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" t="s">
+        <v>254</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>255</v>
+      </c>
+      <c r="G41" t="s">
+        <v>256</v>
+      </c>
+      <c r="H41" t="s">
+        <v>257</v>
+      </c>
+      <c r="I41" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42">
+        <v>2019</v>
+      </c>
+      <c r="C42" t="s">
+        <v>259</v>
+      </c>
+      <c r="D42" t="s">
+        <v>260</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>261</v>
+      </c>
+      <c r="G42" t="s">
+        <v>262</v>
+      </c>
+      <c r="H42" t="s">
+        <v>263</v>
+      </c>
+      <c r="I42" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43">
+        <v>2019</v>
+      </c>
+      <c r="C43" t="s">
+        <v>265</v>
+      </c>
+      <c r="D43" t="s">
+        <v>265</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>266</v>
+      </c>
+      <c r="G43" t="s">
+        <v>267</v>
+      </c>
+      <c r="H43" t="s">
+        <v>268</v>
+      </c>
+      <c r="I43" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44">
+        <v>2019</v>
+      </c>
+      <c r="C44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" t="s">
+        <v>271</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>272</v>
+      </c>
+      <c r="G44" t="s">
+        <v>273</v>
+      </c>
+      <c r="H44" t="s">
+        <v>274</v>
+      </c>
+      <c r="I44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45">
+        <v>2019</v>
+      </c>
+      <c r="C45" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" t="s">
+        <v>276</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>277</v>
+      </c>
+      <c r="G45" t="s">
+        <v>278</v>
+      </c>
+      <c r="H45" t="s">
+        <v>279</v>
+      </c>
+      <c r="I45" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46">
+        <v>2019</v>
+      </c>
+      <c r="C46" t="s">
+        <v>281</v>
+      </c>
+      <c r="D46" t="s">
+        <v>282</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>283</v>
+      </c>
+      <c r="G46" t="s">
+        <v>284</v>
+      </c>
+      <c r="H46" t="s">
+        <v>285</v>
+      </c>
+      <c r="I46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47">
+        <v>2019</v>
+      </c>
+      <c r="C47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>287</v>
+      </c>
+      <c r="G47" t="s">
+        <v>288</v>
+      </c>
+      <c r="H47" t="s">
+        <v>289</v>
+      </c>
+      <c r="I47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>2020</v>
+      </c>
+      <c r="C48" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" t="s">
+        <v>292</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>293</v>
+      </c>
+      <c r="G48" t="s">
+        <v>294</v>
+      </c>
+      <c r="H48" t="s">
+        <v>295</v>
+      </c>
+      <c r="I48" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>2020</v>
+      </c>
+      <c r="C49" t="s">
+        <v>297</v>
+      </c>
+      <c r="D49" t="s">
+        <v>298</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>299</v>
+      </c>
+      <c r="G49" t="s">
+        <v>300</v>
+      </c>
+      <c r="H49" t="s">
+        <v>301</v>
+      </c>
+      <c r="I49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50">
+        <v>2020</v>
+      </c>
+      <c r="C50" t="s">
+        <v>303</v>
+      </c>
+      <c r="D50" t="s">
+        <v>304</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>305</v>
+      </c>
+      <c r="G50" t="s">
+        <v>224</v>
+      </c>
+      <c r="H50" t="s">
+        <v>306</v>
+      </c>
+      <c r="I50" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51">
+        <v>2020</v>
+      </c>
+      <c r="C51" t="s">
+        <v>308</v>
+      </c>
+      <c r="D51" t="s">
+        <v>309</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>310</v>
+      </c>
+      <c r="G51" t="s">
+        <v>311</v>
+      </c>
+      <c r="H51" t="s">
+        <v>312</v>
+      </c>
+      <c r="I51" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52">
+        <v>2020</v>
+      </c>
+      <c r="C52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" t="s">
+        <v>314</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>315</v>
+      </c>
+      <c r="G52" t="s">
+        <v>316</v>
+      </c>
+      <c r="H52" t="s">
+        <v>317</v>
+      </c>
+      <c r="I52" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53">
+        <v>2020</v>
+      </c>
+      <c r="C53" t="s">
+        <v>319</v>
+      </c>
+      <c r="D53" t="s">
+        <v>320</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>321</v>
+      </c>
+      <c r="G53" t="s">
+        <v>322</v>
+      </c>
+      <c r="H53" t="s">
+        <v>323</v>
+      </c>
+      <c r="I53" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>2020</v>
+      </c>
+      <c r="C54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>325</v>
+      </c>
+      <c r="G54" t="s">
+        <v>326</v>
+      </c>
+      <c r="H54" t="s">
+        <v>327</v>
+      </c>
+      <c r="I54" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>2020</v>
+      </c>
+      <c r="C55" t="s">
+        <v>329</v>
+      </c>
+      <c r="D55" t="s">
+        <v>330</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>331</v>
+      </c>
+      <c r="G55" t="s">
+        <v>332</v>
+      </c>
+      <c r="H55" t="s">
+        <v>333</v>
+      </c>
+      <c r="I55" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>2020</v>
+      </c>
+      <c r="C56" t="s">
+        <v>335</v>
+      </c>
+      <c r="D56" t="s">
+        <v>335</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>336</v>
+      </c>
+      <c r="G56" t="s">
+        <v>337</v>
+      </c>
+      <c r="H56" t="s">
+        <v>338</v>
+      </c>
+      <c r="I56" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57">
+        <v>2020</v>
+      </c>
+      <c r="C57" t="s">
+        <v>340</v>
+      </c>
+      <c r="D57" t="s">
+        <v>341</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>342</v>
+      </c>
+      <c r="G57" t="s">
+        <v>294</v>
+      </c>
+      <c r="H57" t="s">
+        <v>343</v>
+      </c>
+      <c r="I57" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58">
+        <v>2020</v>
+      </c>
+      <c r="C58" t="s">
+        <v>345</v>
+      </c>
+      <c r="D58" t="s">
+        <v>346</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>347</v>
+      </c>
+      <c r="G58" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" t="s">
+        <v>348</v>
+      </c>
+      <c r="I58" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59">
+        <v>2020</v>
+      </c>
+      <c r="C59" t="s">
+        <v>350</v>
+      </c>
+      <c r="D59" t="s">
+        <v>351</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>352</v>
+      </c>
+      <c r="G59" t="s">
+        <v>236</v>
+      </c>
+      <c r="H59" t="s">
+        <v>353</v>
+      </c>
+      <c r="I59" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60">
+        <v>2020</v>
+      </c>
+      <c r="C60" t="s">
+        <v>355</v>
+      </c>
+      <c r="D60" t="s">
+        <v>356</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>357</v>
+      </c>
+      <c r="G60" t="s">
+        <v>358</v>
+      </c>
+      <c r="H60" t="s">
+        <v>359</v>
+      </c>
+      <c r="I60" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61">
+        <v>2020</v>
+      </c>
+      <c r="C61" t="s">
+        <v>361</v>
+      </c>
+      <c r="D61" t="s">
+        <v>361</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>362</v>
+      </c>
+      <c r="G61" t="s">
+        <v>363</v>
+      </c>
+      <c r="H61" t="s">
+        <v>364</v>
+      </c>
+      <c r="I61" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62">
+        <v>2020</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>366</v>
+      </c>
+      <c r="G62" t="s">
+        <v>367</v>
+      </c>
+      <c r="H62" t="s">
+        <v>368</v>
+      </c>
+      <c r="I62" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63">
+        <v>2020</v>
+      </c>
+      <c r="C63" t="s">
+        <v>370</v>
+      </c>
+      <c r="D63" t="s">
+        <v>370</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>371</v>
+      </c>
+      <c r="G63" t="s">
+        <v>372</v>
+      </c>
+      <c r="H63" t="s">
+        <v>373</v>
+      </c>
+      <c r="I63" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64">
+        <v>2020</v>
+      </c>
+      <c r="C64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D64" t="s">
+        <v>376</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>377</v>
+      </c>
+      <c r="G64" t="s">
+        <v>378</v>
+      </c>
+      <c r="H64" t="s">
+        <v>379</v>
+      </c>
+      <c r="I64" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65">
+        <v>2020</v>
+      </c>
+      <c r="C65" t="s">
+        <v>381</v>
+      </c>
+      <c r="D65" t="s">
+        <v>382</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>383</v>
+      </c>
+      <c r="G65" t="s">
+        <v>384</v>
+      </c>
+      <c r="H65" t="s">
+        <v>385</v>
+      </c>
+      <c r="I65" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66">
+        <v>2020</v>
+      </c>
+      <c r="C66" t="s">
+        <v>387</v>
+      </c>
+      <c r="D66" t="s">
+        <v>387</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>388</v>
+      </c>
+      <c r="G66" t="s">
+        <v>389</v>
+      </c>
+      <c r="H66" t="s">
+        <v>390</v>
+      </c>
+      <c r="I66" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67">
+        <v>2020</v>
+      </c>
+      <c r="C67" t="s">
+        <v>392</v>
+      </c>
+      <c r="D67" t="s">
+        <v>393</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>394</v>
+      </c>
+      <c r="G67" t="s">
+        <v>395</v>
+      </c>
+      <c r="H67" t="s">
+        <v>396</v>
+      </c>
+      <c r="I67" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68">
+        <v>2020</v>
+      </c>
+      <c r="C68" t="s">
+        <v>398</v>
+      </c>
+      <c r="D68" t="s">
+        <v>398</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>399</v>
+      </c>
+      <c r="G68" t="s">
+        <v>400</v>
+      </c>
+      <c r="H68" t="s">
+        <v>401</v>
+      </c>
+      <c r="I68" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69">
+        <v>2020</v>
+      </c>
+      <c r="C69" t="s">
+        <v>403</v>
+      </c>
+      <c r="D69" t="s">
+        <v>404</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>405</v>
+      </c>
+      <c r="G69" t="s">
+        <v>406</v>
+      </c>
+      <c r="H69" t="s">
+        <v>407</v>
+      </c>
+      <c r="I69" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70">
+        <v>2020</v>
+      </c>
+      <c r="C70" t="s">
+        <v>409</v>
+      </c>
+      <c r="D70" t="s">
+        <v>409</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>410</v>
+      </c>
+      <c r="G70" t="s">
+        <v>411</v>
+      </c>
+      <c r="H70" t="s">
+        <v>412</v>
+      </c>
+      <c r="I70" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
